--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Fzd2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H2">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,31 +549,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>10.0431001646814</v>
+        <v>0.1278803333333333</v>
       </c>
       <c r="N2">
-        <v>10.0431001646814</v>
+        <v>0.383641</v>
       </c>
       <c r="O2">
-        <v>0.8476399449834829</v>
+        <v>0.009974564977605908</v>
       </c>
       <c r="P2">
-        <v>0.8476399449834829</v>
+        <v>0.009974564977605908</v>
       </c>
       <c r="Q2">
-        <v>22.58633020896625</v>
+        <v>0.3223617673093334</v>
       </c>
       <c r="R2">
-        <v>22.58633020896625</v>
+        <v>2.901255905784</v>
       </c>
       <c r="S2">
-        <v>0.8476399449834829</v>
+        <v>0.009974564977605908</v>
       </c>
       <c r="T2">
-        <v>0.8476399449834829</v>
+        <v>0.009974564977605908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,19 +587,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H3">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +608,96 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.80520904268742</v>
+        <v>10.61985133333333</v>
       </c>
       <c r="N3">
-        <v>1.80520904268742</v>
+        <v>31.859554</v>
       </c>
       <c r="O3">
-        <v>0.1523600550165171</v>
+        <v>0.8283400145723324</v>
       </c>
       <c r="P3">
-        <v>0.1523600550165171</v>
+        <v>0.8283400145723324</v>
       </c>
       <c r="Q3">
-        <v>4.059806918757679</v>
+        <v>26.77060619987734</v>
       </c>
       <c r="R3">
-        <v>4.059806918757679</v>
+        <v>240.935455798896</v>
       </c>
       <c r="S3">
-        <v>0.1523600550165171</v>
+        <v>0.8283400145723324</v>
       </c>
       <c r="T3">
-        <v>0.1523600550165171</v>
+        <v>0.8283400145723324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.520808</v>
+      </c>
+      <c r="H4">
+        <v>7.562424</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.072911</v>
+      </c>
+      <c r="N4">
+        <v>6.218733</v>
+      </c>
+      <c r="O4">
+        <v>0.1616854204500617</v>
+      </c>
+      <c r="P4">
+        <v>0.1616854204500617</v>
+      </c>
+      <c r="Q4">
+        <v>5.225410632088</v>
+      </c>
+      <c r="R4">
+        <v>47.02869568879201</v>
+      </c>
+      <c r="S4">
+        <v>0.1616854204500617</v>
+      </c>
+      <c r="T4">
+        <v>0.1616854204500617</v>
       </c>
     </row>
   </sheetData>
